--- a/data/cobranza/observaciones_cobranza.xlsx
+++ b/data/cobranza/observaciones_cobranza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\cobranza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\cobranza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE40B926-EE53-4361-9175-D0352471CE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B055593F-DCCD-4DAE-A251-76DC15028FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="105" windowWidth="20700" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5964" yWindow="4656" windowWidth="12012" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>FECSL     11172</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>wep</t>
-  </si>
-  <si>
-    <t>cobranza_autorizada</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>comentario_autorizacion</t>
@@ -141,16 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,87 +422,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/cobranza/observaciones_cobranza.xlsx
+++ b/data/cobranza/observaciones_cobranza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\cobranza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\cobranza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B055593F-DCCD-4DAE-A251-76DC15028FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4719FFC4-C966-4465-964F-9675D2C69F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="4656" windowWidth="12012" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="112">
   <si>
     <t>FECSL     11172</t>
   </si>
@@ -42,22 +42,325 @@
     <t>Lic</t>
   </si>
   <si>
-    <t>Convenio de venta por alta utilidad</t>
-  </si>
-  <si>
-    <t>F1-CC/2024/01554</t>
-  </si>
-  <si>
-    <t>asasdfasdfasdf</t>
-  </si>
-  <si>
-    <t>wep</t>
-  </si>
-  <si>
     <t>comentario_autorizacion</t>
   </si>
   <si>
     <t>quien_autoriza</t>
+  </si>
+  <si>
+    <t>FECSL     11258</t>
+  </si>
+  <si>
+    <t>FECSL     11208</t>
+  </si>
+  <si>
+    <t>FECSL     11255</t>
+  </si>
+  <si>
+    <t>FECSL     11872</t>
+  </si>
+  <si>
+    <t>FECSL     11898</t>
+  </si>
+  <si>
+    <t>FECSL     11967</t>
+  </si>
+  <si>
+    <t>FECSL     12051</t>
+  </si>
+  <si>
+    <t>FECSL     12059</t>
+  </si>
+  <si>
+    <t>FECSL     12060</t>
+  </si>
+  <si>
+    <t>FECSL     12077</t>
+  </si>
+  <si>
+    <t>FECSL     12114</t>
+  </si>
+  <si>
+    <t>FECSL     12217</t>
+  </si>
+  <si>
+    <t>FECSL     12123</t>
+  </si>
+  <si>
+    <t>FECSL     12189</t>
+  </si>
+  <si>
+    <t>FECSL     12218</t>
+  </si>
+  <si>
+    <t>FECSL     12226</t>
+  </si>
+  <si>
+    <t>F1-VS/2024/00847</t>
+  </si>
+  <si>
+    <t>FECSL     11876</t>
+  </si>
+  <si>
+    <t>FECSL     11896</t>
+  </si>
+  <si>
+    <t>FECSL     14260</t>
+  </si>
+  <si>
+    <t>FECSL     14269</t>
+  </si>
+  <si>
+    <t>FECSL     14270</t>
+  </si>
+  <si>
+    <t>FECSL     14271</t>
+  </si>
+  <si>
+    <t>FECSL     14272</t>
+  </si>
+  <si>
+    <t>FECSL     14273</t>
+  </si>
+  <si>
+    <t>FECSL     14278</t>
+  </si>
+  <si>
+    <t>FECSL     14281</t>
+  </si>
+  <si>
+    <t>FECSL     14289</t>
+  </si>
+  <si>
+    <t>FECSL     14291</t>
+  </si>
+  <si>
+    <t>FECSL     14293</t>
+  </si>
+  <si>
+    <t>FECSL     14295</t>
+  </si>
+  <si>
+    <t>FECSL     14296</t>
+  </si>
+  <si>
+    <t>FECSL     14297</t>
+  </si>
+  <si>
+    <t>FECSL     14298</t>
+  </si>
+  <si>
+    <t>FECSL     14310</t>
+  </si>
+  <si>
+    <t>FECSL     14321</t>
+  </si>
+  <si>
+    <t>FECSL     14323</t>
+  </si>
+  <si>
+    <t>FECSL     14330</t>
+  </si>
+  <si>
+    <t>FECSL     14331</t>
+  </si>
+  <si>
+    <t>FECSL     14333</t>
+  </si>
+  <si>
+    <t>FECSL     14334</t>
+  </si>
+  <si>
+    <t>FECSL     14342</t>
+  </si>
+  <si>
+    <t>FECSL     14355</t>
+  </si>
+  <si>
+    <t>FECSL     14356</t>
+  </si>
+  <si>
+    <t>FECSL     14392</t>
+  </si>
+  <si>
+    <t>FECSL     14393</t>
+  </si>
+  <si>
+    <t>FECSL     14394</t>
+  </si>
+  <si>
+    <t>FECSL     14405</t>
+  </si>
+  <si>
+    <t>FECSL     14406</t>
+  </si>
+  <si>
+    <t>FECSL     14407</t>
+  </si>
+  <si>
+    <t>FECSL     14422</t>
+  </si>
+  <si>
+    <t>FECSL     14423</t>
+  </si>
+  <si>
+    <t>FECSL     14424</t>
+  </si>
+  <si>
+    <t>FECSL     14427</t>
+  </si>
+  <si>
+    <t>FECSL     14429</t>
+  </si>
+  <si>
+    <t>FECSL     14430</t>
+  </si>
+  <si>
+    <t>FECSL     14432</t>
+  </si>
+  <si>
+    <t>FECSL     14434</t>
+  </si>
+  <si>
+    <t>FECSL     14444</t>
+  </si>
+  <si>
+    <t>FECSL     14450</t>
+  </si>
+  <si>
+    <t>FECSL     14451</t>
+  </si>
+  <si>
+    <t>FECSL     14454</t>
+  </si>
+  <si>
+    <t>FECSL     14461</t>
+  </si>
+  <si>
+    <t>FECSL     14463</t>
+  </si>
+  <si>
+    <t>FECSL     14511</t>
+  </si>
+  <si>
+    <t>FECSL     14512</t>
+  </si>
+  <si>
+    <t>FECSL     14546</t>
+  </si>
+  <si>
+    <t>FECSL     14724</t>
+  </si>
+  <si>
+    <t>FECSL     14725</t>
+  </si>
+  <si>
+    <t>FECSL     14726</t>
+  </si>
+  <si>
+    <t>FECSL     14735</t>
+  </si>
+  <si>
+    <t>FECSL     14757</t>
+  </si>
+  <si>
+    <t>FECSL     14762</t>
+  </si>
+  <si>
+    <t>FECSL     14781</t>
+  </si>
+  <si>
+    <t>FECSL     14783</t>
+  </si>
+  <si>
+    <t>FECSL     14784</t>
+  </si>
+  <si>
+    <t>FECSL     14824</t>
+  </si>
+  <si>
+    <t>FECSL     14840</t>
+  </si>
+  <si>
+    <t>FECSL     14843</t>
+  </si>
+  <si>
+    <t>FECSL     14844</t>
+  </si>
+  <si>
+    <t>FECSL     14858</t>
+  </si>
+  <si>
+    <t>FECSL     14888</t>
+  </si>
+  <si>
+    <t>FECSL     14892</t>
+  </si>
+  <si>
+    <t>FECSL     14893</t>
+  </si>
+  <si>
+    <t>FECSL     14913</t>
+  </si>
+  <si>
+    <t>FECSL     14915</t>
+  </si>
+  <si>
+    <t>FECSL     14934</t>
+  </si>
+  <si>
+    <t>FECSL     14947</t>
+  </si>
+  <si>
+    <t>FECSL     14948</t>
+  </si>
+  <si>
+    <t>FECSL     14556</t>
+  </si>
+  <si>
+    <t>FECSL     14557</t>
+  </si>
+  <si>
+    <t>FECSL     14558</t>
+  </si>
+  <si>
+    <t>FECSL     14559</t>
+  </si>
+  <si>
+    <t>FECSL     14589</t>
+  </si>
+  <si>
+    <t>FECSL     14590</t>
+  </si>
+  <si>
+    <t>FECSL     14591</t>
+  </si>
+  <si>
+    <t>FECSL     14592</t>
+  </si>
+  <si>
+    <t>FECSL     14605</t>
+  </si>
+  <si>
+    <t>FECSL     14680</t>
+  </si>
+  <si>
+    <t>FECSL     14687</t>
+  </si>
+  <si>
+    <t>FECSL     14694</t>
+  </si>
+  <si>
+    <t>FECSL     14698</t>
+  </si>
+  <si>
+    <t>FECSL     14714</t>
+  </si>
+  <si>
+    <t>FECSL     14717</t>
+  </si>
+  <si>
+    <t>Convenio de venta, mayor temporalidad de cobranza por alta utilidad</t>
   </si>
 </sst>
 </file>
@@ -422,75 +725,1231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C110">
+    <sortCondition ref="A1:A110"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>